--- a/Project Details.xlsx
+++ b/Project Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>S.No</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Manjula</t>
+  </si>
+  <si>
+    <t>welcome git test</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -219,17 +222,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,9 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -562,16 +577,16 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,65 +603,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>40933</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>40984</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>41037</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>41089</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>41086</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>41227</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>41264</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -655,71 +670,74 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
